--- a/TZ/Требования.xlsx
+++ b/TZ/Требования.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="16956" windowHeight="8016"/>
+    <workbookView xWindow="-732" yWindow="-372" windowWidth="22944" windowHeight="9636"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="35">
   <si>
     <t>№</t>
   </si>
@@ -106,15 +106,6 @@
   </si>
   <si>
     <t>Срочно</t>
-  </si>
-  <si>
-    <t>Высший</t>
-  </si>
-  <si>
-    <t>Минимальный</t>
-  </si>
-  <si>
-    <t>Средний</t>
   </si>
   <si>
     <t>После отправки формы показывается сообщение об удачной отправке</t>
@@ -263,24 +254,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -313,6 +292,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,7 +602,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection sqref="A1:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -625,25 +616,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -652,22 +643,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>32</v>
+      <c r="G2" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="77.400000000000006" customHeight="1">
@@ -677,18 +668,18 @@
       <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="11" t="s">
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>30</v>
+      <c r="G3" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="57.6">
@@ -698,39 +689,39 @@
       <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="11" t="s">
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>30</v>
+      <c r="G4" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="101.4" thickBot="1">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="12" t="s">
+      <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>30</v>
+      <c r="G5" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.8">
@@ -740,20 +731,20 @@
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>30</v>
+      <c r="G6" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="43.2">
@@ -763,18 +754,18 @@
       <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="11" t="s">
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>30</v>
+      <c r="G7" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="43.2">
@@ -784,18 +775,18 @@
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="11" t="s">
+      <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>32</v>
+      <c r="G8" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28.8">
@@ -805,18 +796,18 @@
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="11" t="s">
+      <c r="C9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>30</v>
+      <c r="G9" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="43.2">
@@ -826,39 +817,39 @@
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="11" t="s">
+      <c r="C10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>32</v>
+      <c r="G10" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="43.8" thickBot="1">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="12" t="s">
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>32</v>
+      <c r="G11" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="43.2">
@@ -868,20 +859,20 @@
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>31</v>
+      <c r="G12" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="28.8">
@@ -891,18 +882,18 @@
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="11" t="s">
+      <c r="C13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>30</v>
+      <c r="G13" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.4" customHeight="1">
@@ -912,18 +903,18 @@
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="11" t="s">
+      <c r="C14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>30</v>
+      <c r="G14" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="28.8">
@@ -931,20 +922,20 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="11" t="s">
+      <c r="D15" s="18"/>
+      <c r="E15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>31</v>
+      <c r="G15" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.4" customHeight="1">
@@ -954,18 +945,18 @@
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="13" t="s">
+      <c r="C16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="13" t="s">
-        <v>32</v>
+      <c r="G16" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="28.8">
@@ -973,62 +964,62 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="13" t="s">
+      <c r="D17" s="18"/>
+      <c r="E17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="19" t="s">
-        <v>30</v>
+      <c r="G17" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="28.8">
-      <c r="A18" s="15">
-        <v>17</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="13" t="s">
+      <c r="C18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="13" t="s">
-        <v>31</v>
+      <c r="G18" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="29.4" thickBot="1">
-      <c r="A19" s="16">
+      <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="18" t="s">
+      <c r="B19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="14" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="14" t="s">
-        <v>31</v>
+      <c r="G19" s="10">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1037,7 +1028,7 @@
     <mergeCell ref="D6:D11"/>
     <mergeCell ref="D12:D19"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
